--- a/CashFlow/TFX_cashflow.xlsx
+++ b/CashFlow/TFX_cashflow.xlsx
@@ -74,9 +74,9 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" bestFit="1" customWidth="1" width="28.6"/>
-    <col min="2" max="2" bestFit="1" customWidth="1" width="15.400000000000002"/>
-    <col min="3" max="3" bestFit="1" customWidth="1" width="15.400000000000002"/>
-    <col min="4" max="4" bestFit="1" customWidth="1" width="15.400000000000002"/>
+    <col min="2" max="2" bestFit="1" customWidth="1" width="14.3"/>
+    <col min="3" max="3" bestFit="1" customWidth="1" width="14.3"/>
+    <col min="4" max="4" bestFit="1" customWidth="1" width="14.3"/>
     <col min="5" max="5" bestFit="1" customWidth="1" width="14.3"/>
     <col min="6" max="6" bestFit="1" customWidth="1" width="14.3"/>
     <col min="7" max="7" bestFit="1" customWidth="1" width="14.3"/>
@@ -758,19 +758,19 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>2066000000.0</v>
+        <v>-3225000.0</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>2043000000.0</v>
+        <v>-5497000.0</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>1530089000.0</v>
+        <v>-38007000.0</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>984800000.0</v>
+        <v>-54075000.0</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>455030000.0</v>
+        <v>-46316000.0</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>-53170000.0</v>
@@ -885,19 +885,19 @@
         </is>
       </c>
       <c r="B7" s="0" t="n">
-        <v>408000000.0</v>
+        <v>133134000.0</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>411000000.0</v>
+        <v>646000.0</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>312390000.0</v>
+        <v>147000.0</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>253252000.0</v>
+        <v>15803000.0</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>131165000.0</v>
+        <v>-4323000.0</v>
       </c>
       <c r="G7" s="0" t="n">
         <v>36021000.0</v>
